--- a/va_facility_data_2025-02-20/Branson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Branson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Branson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Branson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R318e26a276204222b4eff5c0f72b0bcd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rba7424bf16ca4f18b2e91ac5fb8b6b06"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0f7a8ae740d64406aa99c9edef383a4c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcb6b4eca6990433a8d8942b501d89d4e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R940097ad26ed40478d434ffdfdfdda80"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1c15665caf114850a7f5703fc0d1c55f"/>
   </x:sheets>
 </x:workbook>
 </file>
